--- a/template/TestPlan/TestPlan.xlsx
+++ b/template/TestPlan/TestPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Channel" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Channel!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -230,26 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FailSoftWareBin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FailHardWareBin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassSoftWareBin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassHardWareBin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUTResul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SheetName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,6 +355,26 @@
   </si>
   <si>
     <t>GroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FailSoftwareBin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassSoftwareBin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FailHardwareBin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassHardwareBin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUTResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,12 +439,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +757,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,7 +778,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -792,9 +795,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
       <formula1>"I/O,DPS,VNA"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,95 +809,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:W5"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9" style="1"/>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -903,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -944,19 +955,19 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +986,18 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>TestItem!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -983,7 +1006,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -995,7 +1018,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1003,16 +1026,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>TestItem!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1020,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1039,49 +1074,49 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1131,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1109,48 +1144,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
